--- a/SGCCA_HSIC/Results/Simulation1_DynamicSampleSizeRes.xlsx
+++ b/SGCCA_HSIC/Results/Simulation1_DynamicSampleSizeRes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programer\Documents\GitHub\SGCCA_HSIC\SGCCA_HSIC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B4915-5BE5-469F-9D97-01FE222ABA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398A2CF-19B9-41A7-BE1A-E154231138C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="14475" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,6 +926,24 @@
       <c r="A21" s="2">
         <v>1</v>
       </c>
+      <c r="B21" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.4E-2</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1326,6 +1344,24 @@
       <c r="A41" s="2">
         <v>2</v>
       </c>
+      <c r="B41" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>11</v>
       </c>
@@ -1725,6 +1761,24 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>3</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>11</v>
